--- a/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAE3B0A-666F-47C3-B409-C6D41BB01F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A20C57-15AA-4645-85B6-B1B7C6BBE42F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="8" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="AllocationsAmounts_fact" sheetId="7" r:id="rId6"/>
     <sheet name="strLiteralToDateString" sheetId="10" r:id="rId7"/>
     <sheet name="BeneficialUseCategory" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="355">
   <si>
     <t>AllocationAmount</t>
   </si>
@@ -1657,6 +1658,261 @@
   </si>
   <si>
     <t>concantate with a counter and 'UT'</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>DIO</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>OX</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>DIOS</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>DOS</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>DSX</t>
+  </si>
+  <si>
+    <t>DIMOS</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>DIMS</t>
+  </si>
+  <si>
+    <t>IMO</t>
+  </si>
+  <si>
+    <t>DIOP</t>
+  </si>
+  <si>
+    <t>IMOSX</t>
+  </si>
+  <si>
+    <t>DOX</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>DIX</t>
+  </si>
+  <si>
+    <t>DISX</t>
+  </si>
+  <si>
+    <t>DMO</t>
+  </si>
+  <si>
+    <t>ISX</t>
+  </si>
+  <si>
+    <t>OSX</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>DISP</t>
+  </si>
+  <si>
+    <t>IOP</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>DIOSP</t>
+  </si>
+  <si>
+    <t>OPX</t>
+  </si>
+  <si>
+    <t>DOSX</t>
+  </si>
+  <si>
+    <t>DIOSPX</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>DIMO</t>
+  </si>
+  <si>
+    <t>DIM</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>IMOS</t>
+  </si>
+  <si>
+    <t>OSP</t>
+  </si>
+  <si>
+    <t>DIP</t>
+  </si>
+  <si>
+    <t>DIMOP</t>
+  </si>
+  <si>
+    <t>MOX</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>IMX</t>
+  </si>
+  <si>
+    <t>DMX</t>
+  </si>
+  <si>
+    <t>DIMOSP</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>DMOSX</t>
+  </si>
+  <si>
+    <t>DIOX</t>
+  </si>
+  <si>
+    <t>DISPX</t>
+  </si>
+  <si>
+    <t>MOS</t>
+  </si>
+  <si>
+    <t>IOX</t>
+  </si>
+  <si>
+    <t>DPX</t>
+  </si>
+  <si>
+    <t>IMSP</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>IOSX</t>
+  </si>
+  <si>
+    <t>DIMOSPX</t>
+  </si>
+  <si>
+    <t>DIMOSX</t>
+  </si>
+  <si>
+    <t>IOSP</t>
+  </si>
+  <si>
+    <t>MSX</t>
+  </si>
+  <si>
+    <t>IOSPX</t>
+  </si>
+  <si>
+    <t>IPX</t>
+  </si>
+  <si>
+    <t>DIOSX</t>
+  </si>
+  <si>
+    <t>IMOP</t>
+  </si>
+  <si>
+    <t>DOPX</t>
+  </si>
+  <si>
+    <t>DMOP</t>
+  </si>
+  <si>
+    <t>DIMOX</t>
+  </si>
+  <si>
+    <t>DIMX</t>
+  </si>
+  <si>
+    <t>DMOS</t>
+  </si>
+  <si>
+    <t>IMOSP</t>
+  </si>
+  <si>
+    <t>DIMSP</t>
   </si>
 </sst>
 </file>
@@ -5286,7 +5542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
@@ -7012,4 +7268,487 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9330F944-A4DF-4853-937F-B846AC9F3E61}">
+  <dimension ref="A1:A93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A317488"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A317487">
+    <sortCondition ref="A2:A317487"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01DA84C-5B5A-4255-A0F0-36B807F626A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA28937-AEF5-4C26-91D1-378626219322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="284">
   <si>
     <t>Name</t>
   </si>
@@ -889,6 +889,9 @@
   </si>
   <si>
     <t>UT_Water Allocation</t>
+  </si>
+  <si>
+    <t>Issue of getting 'GeneratedPowerCapacityMW' to load in.  Cross-group not valid error.</t>
   </si>
 </sst>
 </file>
@@ -898,7 +901,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,6 +1132,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1667,7 +1677,7 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1936,9 +1946,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1981,6 +1988,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2338,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE138B66-616D-4172-8AF0-472ECC34BD33}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2383,6 +2406,9 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
         <v>205</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -3783,7 +3809,7 @@
       <c r="E5" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="92" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="25" t="s">
@@ -3813,7 +3839,7 @@
       <c r="E6" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="92" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="25" t="s">
@@ -3843,7 +3869,7 @@
       <c r="E7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="92" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="25" t="s">
@@ -3873,7 +3899,7 @@
       <c r="E8" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="92" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="25" t="s">
@@ -3903,7 +3929,7 @@
       <c r="E9" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="92" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="25" t="s">
@@ -4059,7 +4085,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="100" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -4116,7 +4142,7 @@
       <c r="I5" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="102" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4130,21 +4156,21 @@
       <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="104" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="23" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="103" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4556,7 +4582,7 @@
         <v>38</v>
       </c>
       <c r="I19" s="89"/>
-      <c r="J19" s="94" t="s">
+      <c r="J19" s="93" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4650,7 +4676,7 @@
       <c r="I22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="95" t="s">
+      <c r="J22" s="94" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4667,13 +4693,13 @@
       <c r="D23" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="95" t="s">
         <v>237</v>
       </c>
       <c r="F23" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="G23" s="97" t="s">
+      <c r="G23" s="96" t="s">
         <v>236</v>
       </c>
       <c r="H23" s="23" t="s">
@@ -4763,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5084,7 +5110,7 @@
       <c r="D11" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="99" t="s">
         <v>197</v>
       </c>
       <c r="F11" s="58" t="s">
@@ -5935,35 +5961,35 @@
       <c r="O36" s="62"/>
       <c r="P36" s="62"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="31" t="s">
+      <c r="D37" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="F37" s="92" t="s">
+      <c r="F37" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="H37" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="49" t="s">
+      <c r="H37" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="110" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6086,7 +6112,7 @@
       <c r="F41" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="98" t="s">
+      <c r="G41" s="97" t="s">
         <v>38</v>
       </c>
       <c r="H41" s="68" t="s">
@@ -6095,7 +6121,7 @@
       <c r="I41" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="99" t="s">
+      <c r="J41" s="98" t="s">
         <v>201</v>
       </c>
     </row>

--- a/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA28937-AEF5-4C26-91D1-378626219322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72CDD2F-D678-4C06-B86F-92BF9E24920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="283">
   <si>
     <t>Name</t>
   </si>
@@ -534,9 +534,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>UTDWRE</t>
-  </si>
-  <si>
     <t>craigmiller@utah.gov</t>
   </si>
   <si>
@@ -633,12 +630,6 @@
     <t>Pre proccsed to 'AllocationTimeframeStart'.  Looking at length and returning spliced values</t>
   </si>
   <si>
-    <t>"UT_Allocation All"</t>
-  </si>
-  <si>
-    <t>UT_Allocation All</t>
-  </si>
-  <si>
     <t>concantate with a counter and 'UT'</t>
   </si>
   <si>
@@ -888,10 +879,16 @@
     <t>Adjudicated</t>
   </si>
   <si>
-    <t>UT_Water Allocation</t>
-  </si>
-  <si>
     <t>Issue of getting 'GeneratedPowerCapacityMW' to load in.  Cross-group not valid error.</t>
+  </si>
+  <si>
+    <t>UTwr_M1</t>
+  </si>
+  <si>
+    <t>UTwr_V1</t>
+  </si>
+  <si>
+    <t>UTwr_O1</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE138B66-616D-4172-8AF0-472ECC34BD33}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2376,39 +2373,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="84" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -2447,7 +2444,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2550,7 +2547,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -2582,7 +2579,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>38</v>
@@ -2710,7 +2707,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -2742,7 +2739,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -2806,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -2838,7 +2835,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2941,7 +2938,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3260,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3364,7 +3361,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3396,7 +3393,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>38</v>
@@ -3428,7 +3425,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>38</v>
@@ -3460,7 +3457,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>38</v>
@@ -3492,7 +3489,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>38</v>
@@ -3524,7 +3521,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -3556,7 +3553,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -3588,7 +3585,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -3620,7 +3617,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -3777,7 +3774,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3897,7 +3894,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F8" s="92" t="s">
         <v>38</v>
@@ -3927,7 +3924,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F9" s="92" t="s">
         <v>38</v>
@@ -3957,19 +3954,19 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J10" s="27"/>
     </row>
@@ -4096,7 +4093,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>38</v>
@@ -4116,7 +4113,7 @@
     </row>
     <row r="5" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B5" s="63" t="s">
         <v>67</v>
@@ -4160,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F6" s="104"/>
       <c r="G6" s="105"/>
@@ -4171,7 +4168,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="103" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4188,7 +4185,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>38</v>
@@ -4220,7 +4217,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>38</v>
@@ -4442,10 +4439,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>55</v>
@@ -4474,10 +4471,10 @@
         <v>38</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>54</v>
@@ -4558,7 +4555,7 @@
     </row>
     <row r="19" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>16</v>
@@ -4570,7 +4567,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="88" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>38</v>
@@ -4583,7 +4580,7 @@
       </c>
       <c r="I19" s="89"/>
       <c r="J19" s="93" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4604,7 +4601,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>38</v>
@@ -4636,7 +4633,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>38</v>
@@ -4694,13 +4691,13 @@
         <v>20</v>
       </c>
       <c r="E23" s="95" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F23" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="96" t="s">
         <v>233</v>
-      </c>
-      <c r="G23" s="96" t="s">
-        <v>236</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>38</v>
@@ -4726,7 +4723,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>38</v>
@@ -4789,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5015,7 +5012,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>38</v>
@@ -5047,7 +5044,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>38</v>
@@ -5079,13 +5076,13 @@
         <v>38</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H10" s="49" t="s">
         <v>38</v>
@@ -5111,7 +5108,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="99" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="F11" s="58" t="s">
         <v>38</v>
@@ -5239,7 +5236,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>38</v>
@@ -5303,13 +5300,13 @@
         <v>38</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F17" s="90" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>38</v>
@@ -5387,7 +5384,7 @@
     </row>
     <row r="20" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>69</v>
@@ -5402,7 +5399,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>113</v>
@@ -5431,13 +5428,13 @@
         <v>20</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>38</v>
@@ -5466,10 +5463,10 @@
         <v>38</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>38</v>
@@ -5504,10 +5501,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>38</v>
@@ -5536,10 +5533,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>38</v>
@@ -5597,13 +5594,13 @@
         <v>38</v>
       </c>
       <c r="E26" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>194</v>
-      </c>
-      <c r="F26" s="91" t="s">
-        <v>231</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>195</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>38</v>
@@ -5629,13 +5626,13 @@
         <v>38</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27" s="91" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>38</v>
@@ -5661,7 +5658,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>38</v>
@@ -5681,7 +5678,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>69</v>
@@ -5696,10 +5693,10 @@
         <v>38</v>
       </c>
       <c r="F29" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>38</v>
@@ -5731,13 +5728,13 @@
         <v>38</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F30" s="73" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>38</v>
@@ -5929,10 +5926,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="85" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C36" s="64" t="s">
         <v>18</v>
@@ -5975,13 +5972,13 @@
         <v>38</v>
       </c>
       <c r="E37" s="108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F37" s="108" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G37" s="109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H37" s="110" t="s">
         <v>38</v>
@@ -6095,7 +6092,7 @@
     </row>
     <row r="41" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B41" s="63" t="s">
         <v>34</v>
@@ -6122,7 +6119,7 @@
         <v>38</v>
       </c>
       <c r="J41" s="98" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -6209,7 +6206,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F44" s="42" t="s">
         <v>38</v>
@@ -6291,39 +6288,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>177</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>179</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>181</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>183</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6331,23 +6328,23 @@
         <v>163</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="78" t="s">
         <v>186</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>188</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6357,62 +6354,62 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
@@ -6422,45 +6419,45 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -6470,102 +6467,102 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72CDD2F-D678-4C06-B86F-92BF9E24920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06144FE4-FFEA-4615-8C97-9A899D93E94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="284">
   <si>
     <t>Name</t>
   </si>
@@ -889,6 +889,9 @@
   </si>
   <si>
     <t>UTwr_O1</t>
+  </si>
+  <si>
+    <t>* Add POD or POU to OBJECTID for easy identifying</t>
   </si>
 </sst>
 </file>
@@ -3257,7 +3260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3991,8 +3994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4627,7 +4630,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>38</v>

--- a/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06144FE4-FFEA-4615-8C97-9A899D93E94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCA1D4-4576-493D-A3A4-6AB84C2A6BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -849,9 +849,6 @@
     <t>"Rediversion" : "Surface Water",</t>
   </si>
   <si>
-    <t>OBJECTID</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                   </t>
   </si>
   <si>
@@ -891,7 +888,11 @@
     <t>UTwr_O1</t>
   </si>
   <si>
-    <t>* Add POD or POU to OBJECTID for easy identifying</t>
+    <t>OBJECTID
+RECORD_ID</t>
+  </si>
+  <si>
+    <t>* Add POD or POU to id for easy identifying</t>
   </si>
 </sst>
 </file>
@@ -2408,7 +2409,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -2550,7 +2551,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -2582,7 +2583,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>38</v>
@@ -2710,7 +2711,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -2742,7 +2743,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -2806,7 +2807,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -2941,7 +2942,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3364,7 +3365,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3927,7 +3928,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F9" s="92" t="s">
         <v>38</v>
@@ -3995,7 +3996,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4116,7 +4117,7 @@
     </row>
     <row r="5" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="63" t="s">
         <v>67</v>
@@ -4160,7 +4161,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F6" s="104"/>
       <c r="G6" s="105"/>
@@ -4171,7 +4172,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="103" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4616,7 +4617,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
@@ -4635,8 +4636,8 @@
       <c r="F21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>269</v>
+      <c r="G21" s="32" t="s">
+        <v>282</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>38</v>
@@ -4789,8 +4790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5015,7 +5016,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>38</v>
@@ -5111,7 +5112,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="99" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F11" s="58" t="s">
         <v>38</v>
@@ -5303,7 +5304,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F17" s="90" t="s">
         <v>227</v>

--- a/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCA1D4-4576-493D-A3A4-6AB84C2A6BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7955B4FA-E8A4-40A0-AA50-DD8DCD13F5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="287">
   <si>
     <t>Name</t>
   </si>
@@ -493,9 +493,6 @@
   </si>
   <si>
     <t>Water Administration for the State of Colorado</t>
-  </si>
-  <si>
-    <t>PrimaryUseCategory</t>
   </si>
   <si>
     <t>BeneficialUseCategory</t>
@@ -893,6 +890,18 @@
   </si>
   <si>
     <t>* Add POD or POU to id for easy identifying</t>
+  </si>
+  <si>
+    <t>Looks like UT 'used' to store the data values as Unix time format.  They have since changed to using strings only.</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>UTwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1687,7 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2005,6 +2014,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2363,7 +2375,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2377,39 +2389,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -2448,7 +2465,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2490,10 +2507,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -2551,7 +2568,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -2583,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>38</v>
@@ -2615,7 +2632,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>38</v>
@@ -2647,7 +2664,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>38</v>
@@ -2679,7 +2696,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>38</v>
@@ -2711,7 +2728,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -2743,7 +2760,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -2775,7 +2792,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -2807,7 +2824,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -2881,10 +2898,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -2942,7 +2959,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3304,10 +3321,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -3365,7 +3382,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3397,7 +3414,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>38</v>
@@ -3429,7 +3446,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>38</v>
@@ -3461,7 +3478,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>38</v>
@@ -3493,7 +3510,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>38</v>
@@ -3525,7 +3542,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -3557,7 +3574,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -3589,7 +3606,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -3621,7 +3638,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -3719,10 +3736,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -3778,7 +3795,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3808,7 +3825,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" s="92" t="s">
         <v>38</v>
@@ -3838,7 +3855,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="92" t="s">
         <v>38</v>
@@ -3898,7 +3915,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" s="92" t="s">
         <v>38</v>
@@ -3928,7 +3945,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F9" s="92" t="s">
         <v>38</v>
@@ -3958,19 +3975,19 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F10" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>231</v>
-      </c>
       <c r="H10" s="23" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J10" s="27"/>
     </row>
@@ -3995,7 +4012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -4038,10 +4055,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>4</v>
@@ -4097,7 +4114,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>38</v>
@@ -4117,7 +4134,7 @@
     </row>
     <row r="5" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="63" t="s">
         <v>67</v>
@@ -4129,7 +4146,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>38</v>
@@ -4161,7 +4178,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F6" s="104"/>
       <c r="G6" s="105"/>
@@ -4172,7 +4189,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4189,7 +4206,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>38</v>
@@ -4221,7 +4238,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>38</v>
@@ -4253,7 +4270,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>38</v>
@@ -4317,7 +4334,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>38</v>
@@ -4347,7 +4364,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>38</v>
@@ -4379,7 +4396,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>38</v>
@@ -4411,7 +4428,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>38</v>
@@ -4443,10 +4460,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>55</v>
@@ -4475,10 +4492,10 @@
         <v>38</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>54</v>
@@ -4507,7 +4524,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>38</v>
@@ -4539,7 +4556,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>38</v>
@@ -4559,7 +4576,7 @@
     </row>
     <row r="19" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>16</v>
@@ -4571,7 +4588,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>38</v>
@@ -4584,7 +4601,7 @@
       </c>
       <c r="I19" s="89"/>
       <c r="J19" s="93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4605,7 +4622,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>38</v>
@@ -4631,13 +4648,13 @@
         <v>38</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>38</v>
@@ -4663,7 +4680,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>38</v>
@@ -4695,13 +4712,13 @@
         <v>20</v>
       </c>
       <c r="E23" s="95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F23" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G23" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>38</v>
@@ -4727,7 +4744,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>38</v>
@@ -4759,7 +4776,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F25" s="31" t="s">
         <v>38</v>
@@ -4788,10 +4805,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:G24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4833,10 +4850,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>4</v>
@@ -5004,71 +5021,61 @@
     </row>
     <row r="8" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="112" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B9" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="32" t="s">
+      <c r="C9" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="49" t="s">
+      <c r="I9" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="68" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>67</v>
@@ -5079,124 +5086,124 @@
       <c r="D10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="77" t="s">
         <v>174</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="F11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B12" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>280</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="63" t="s">
+      <c r="C12" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C13" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D13" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="67">
+      <c r="E13" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="67">
         <v>5363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>68</v>
@@ -5208,7 +5215,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>38</v>
@@ -5227,75 +5234,75 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B16" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C16" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D16" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="67" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="E16" s="31" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="25" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>139</v>
+      <c r="I16" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>18</v>
@@ -5304,13 +5311,13 @@
         <v>38</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="F17" s="90" t="s">
-        <v>227</v>
+        <v>161</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>38</v>
@@ -5319,15 +5326,15 @@
         <v>38</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>18</v>
@@ -5336,13 +5343,13 @@
         <v>38</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>38</v>
+        <v>268</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>226</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>38</v>
@@ -5350,25 +5357,25 @@
       <c r="I18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J18" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>38</v>
@@ -5382,31 +5389,31 @@
       <c r="I19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="13">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>113</v>
+        <v>161</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>38</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>38</v>
@@ -5415,30 +5422,30 @@
         <v>38</v>
       </c>
       <c r="J20" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="80" t="s">
-        <v>223</v>
+        <v>38</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>38</v>
@@ -5446,31 +5453,31 @@
       <c r="I21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="E22" s="80" t="s">
+        <v>222</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>38</v>
@@ -5479,36 +5486,30 @@
         <v>38</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>38</v>
@@ -5517,30 +5518,36 @@
         <v>38</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>136</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="74" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>38</v>
@@ -5549,30 +5556,30 @@
         <v>38</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>38</v>
+      <c r="E25" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>229</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>38</v>
@@ -5580,31 +5587,31 @@
       <c r="I25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="J25" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="91" t="s">
-        <v>228</v>
+        <v>161</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>38</v>
@@ -5612,13 +5619,13 @@
       <c r="I26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="46">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="J26" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>106</v>
@@ -5630,13 +5637,13 @@
         <v>38</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F27" s="91" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>38</v>
@@ -5645,30 +5652,30 @@
         <v>38</v>
       </c>
       <c r="J27" s="46">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>38</v>
+        <v>194</v>
+      </c>
+      <c r="F28" s="91" t="s">
+        <v>227</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="H28" s="49" t="s">
         <v>38</v>
@@ -5676,31 +5683,31 @@
       <c r="I28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>134</v>
+      <c r="J28" s="46">
+        <v>43831</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>206</v>
+        <v>87</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="73" t="s">
-        <v>230</v>
+        <v>224</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>38</v>
@@ -5708,95 +5715,95 @@
       <c r="I29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
+      <c r="J29" s="13" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>38</v>
+        <v>69</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="80" t="s">
-        <v>223</v>
+      <c r="E30" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="F30" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="49" t="s">
-        <v>38</v>
-      </c>
+      <c r="I30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>18</v>
+      <c r="C31" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>38</v>
+      <c r="E31" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>229</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>134</v>
+      <c r="I31" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="49" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>38</v>
@@ -5814,9 +5821,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>15</v>
@@ -5828,7 +5835,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>38</v>
@@ -5845,232 +5852,232 @@
       <c r="J33" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="63" t="s">
+    </row>
+    <row r="34" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="79">
+      <c r="C35" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="79">
         <v>43906</v>
       </c>
-      <c r="F34" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="72">
+      <c r="F35" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="72">
         <v>43874</v>
       </c>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-    </row>
-    <row r="35" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+    </row>
+    <row r="36" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="47">
+      <c r="D36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="47">
         <v>33187</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="85" t="s">
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" s="64" t="s">
+      <c r="C37" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="42">
+      <c r="D37" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="42">
         <v>0</v>
       </c>
-      <c r="F36" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="86"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-    </row>
-    <row r="37" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
+      <c r="F37" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="86"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+    </row>
+    <row r="38" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="106" t="s">
+      <c r="B38" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C38" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="G37" s="109" t="s">
+      <c r="D38" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="H37" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="110" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="49" t="s">
+      <c r="F38" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" s="109" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="110" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F39" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="G39" s="25"/>
       <c r="H39" s="49" t="s">
         <v>38</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F40" s="42" t="s">
         <v>38</v>
@@ -6084,191 +6091,223 @@
       <c r="I40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
+      <c r="J40" s="13" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="41" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="B41" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="98" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="13" t="s">
+      <c r="E44" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="63" t="s">
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C45" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D45" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="67" t="s">
+      <c r="E45" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="13" t="s">
+      <c r="D46" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="13" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:P45">
-    <sortCondition ref="A12:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:P46">
+    <sortCondition ref="A13:A46"/>
   </sortState>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6292,63 +6331,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>176</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>178</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>180</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>182</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="78" t="s">
         <v>185</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>187</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6358,62 +6397,62 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
@@ -6423,45 +6462,45 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -6471,102 +6510,102 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7955B4FA-E8A4-40A0-AA50-DD8DCD13F5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31167FE8-F6D4-4277-9D32-2EE3BFAA04FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="285">
   <si>
     <t>Name</t>
   </si>
@@ -651,9 +651,6 @@
     <t>Utah</t>
   </si>
   <si>
-    <t>Contact infomratoin can be found at: https://www.waterrights.utah.gov/contact.asp</t>
-  </si>
-  <si>
     <t>AllocationFlow_CFS</t>
   </si>
   <si>
@@ -715,9 +712,6 @@
   </si>
   <si>
     <t>Unspecified</t>
-  </si>
-  <si>
-    <t>The Utah Division of Water Rights (UTDWR) publishes its water right data on-demand through the PUBDUMP Database table dump Utility available at (Download the WATER_MASTER table): https://www.waterrights.utah.gov/cgi-bin/pubdump.exe?DBNAME=WRDB&amp;SECURITYKEY=wrt2012access</t>
   </si>
   <si>
     <t>WTRUSE_MUNICIPAL</t>
@@ -2375,7 +2369,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2407,26 +2401,22 @@
       <c r="A6" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="84" t="s">
-        <v>225</v>
-      </c>
+      <c r="B6" s="84"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="84" t="s">
-        <v>203</v>
-      </c>
+      <c r="B7" s="84"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
         <v>201</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -2568,7 +2558,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -2600,7 +2590,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>38</v>
@@ -2728,7 +2718,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -2760,7 +2750,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -2824,7 +2814,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -2959,7 +2949,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3382,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3915,7 +3905,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F8" s="92" t="s">
         <v>38</v>
@@ -3945,7 +3935,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F9" s="92" t="s">
         <v>38</v>
@@ -3975,19 +3965,19 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J10" s="27"/>
     </row>
@@ -4134,7 +4124,7 @@
     </row>
     <row r="5" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B5" s="63" t="s">
         <v>67</v>
@@ -4178,7 +4168,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F6" s="104"/>
       <c r="G6" s="105"/>
@@ -4189,7 +4179,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4206,7 +4196,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>38</v>
@@ -4238,7 +4228,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>38</v>
@@ -4463,7 +4453,7 @@
         <v>171</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>55</v>
@@ -4495,7 +4485,7 @@
         <v>171</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>54</v>
@@ -4576,7 +4566,7 @@
     </row>
     <row r="19" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>16</v>
@@ -4588,7 +4578,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>38</v>
@@ -4601,7 +4591,7 @@
       </c>
       <c r="I19" s="89"/>
       <c r="J19" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4622,7 +4612,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>38</v>
@@ -4648,13 +4638,13 @@
         <v>38</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>38</v>
@@ -4712,13 +4702,13 @@
         <v>20</v>
       </c>
       <c r="E23" s="95" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F23" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G23" s="96" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>38</v>
@@ -4807,8 +4797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5021,7 +5011,7 @@
     </row>
     <row r="8" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B8" s="63" t="s">
         <v>34</v>
@@ -5033,7 +5023,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="112" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="59"/>
@@ -5055,7 +5045,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>38</v>
@@ -5151,7 +5141,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F12" s="58" t="s">
         <v>38</v>
@@ -5279,7 +5269,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>38</v>
@@ -5343,10 +5333,10 @@
         <v>38</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G18" s="59" t="s">
         <v>190</v>
@@ -5427,7 +5417,7 @@
     </row>
     <row r="21" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>69</v>
@@ -5442,7 +5432,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>113</v>
@@ -5471,13 +5461,13 @@
         <v>20</v>
       </c>
       <c r="E22" s="80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>38</v>
@@ -5506,7 +5496,7 @@
         <v>38</v>
       </c>
       <c r="F23" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>172</v>
@@ -5544,10 +5534,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>38</v>
@@ -5576,10 +5566,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>38</v>
@@ -5640,7 +5630,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>193</v>
@@ -5672,7 +5662,7 @@
         <v>194</v>
       </c>
       <c r="F28" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>191</v>
@@ -5701,7 +5691,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>38</v>
@@ -5721,7 +5711,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>69</v>
@@ -5733,13 +5723,13 @@
         <v>38</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="73" t="s">
-        <v>229</v>
+        <v>161</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>38</v>
@@ -5771,13 +5761,13 @@
         <v>38</v>
       </c>
       <c r="E31" s="80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F31" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>38</v>
@@ -5969,10 +5959,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="63" t="s">
         <v>206</v>
-      </c>
-      <c r="B37" s="63" t="s">
-        <v>207</v>
       </c>
       <c r="C37" s="64" t="s">
         <v>18</v>
@@ -6018,7 +6008,7 @@
         <v>189</v>
       </c>
       <c r="F38" s="108" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G38" s="109" t="s">
         <v>188</v>
@@ -6047,12 +6037,14 @@
         <v>38</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="F39" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>254</v>
+      </c>
       <c r="H39" s="49" t="s">
         <v>38</v>
       </c>
@@ -6237,7 +6229,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="62" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B45" s="63" t="s">
         <v>105</v>
@@ -6249,7 +6241,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F45" s="42" t="s">
         <v>38</v>
@@ -6331,7 +6323,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6397,62 +6389,62 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
@@ -6462,45 +6454,45 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -6510,102 +6502,102 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31167FE8-F6D4-4277-9D32-2EE3BFAA04FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B8A263-EF37-4E0D-8B30-1AFF6DCB1351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="273">
   <si>
     <t>Name</t>
   </si>
@@ -564,9 +564,6 @@
     <t>Pull from sites.csv</t>
   </si>
   <si>
-    <t>"UTDWRE"</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -606,27 +603,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>POWER_CAPACITY</t>
-  </si>
-  <si>
-    <t>input POWER_UNITS KW; target GW /div by 10000</t>
-  </si>
-  <si>
-    <t>MUNICIPALITY</t>
-  </si>
-  <si>
-    <t>USE_BEG_DATE_x</t>
-  </si>
-  <si>
-    <t>Pre proccsed to 'AllocationTimeframeEnd'.  Looking at length and returning spliced values</t>
-  </si>
-  <si>
-    <t>USE_END_DATE_x</t>
-  </si>
-  <si>
-    <t>Pre proccsed to 'AllocationTimeframeStart'.  Looking at length and returning spliced values</t>
-  </si>
-  <si>
     <t>concantate with a counter and 'UT'</t>
   </si>
   <si>
@@ -714,15 +690,6 @@
     <t>Unspecified</t>
   </si>
   <si>
-    <t>WTRUSE_MUNICIPAL</t>
-  </si>
-  <si>
-    <t>IRRIGATION_MASTER</t>
-  </si>
-  <si>
-    <t>WTRUSE_POWER</t>
-  </si>
-  <si>
     <t>PointsOfDiversion_input</t>
   </si>
   <si>
@@ -865,9 +832,6 @@
   </si>
   <si>
     <t>Adjudicated</t>
-  </si>
-  <si>
-    <t>Issue of getting 'GeneratedPowerCapacityMW' to load in.  Cross-group not valid error.</t>
   </si>
   <si>
     <t>UTwr_M1</t>
@@ -905,7 +869,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,27 +1086,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1681,7 +1624,7 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1944,12 +1887,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1992,22 +1929,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2369,7 +2290,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2383,15 +2304,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>166</v>
@@ -2399,7 +2320,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B6" s="84"/>
     </row>
@@ -2408,15 +2329,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="111" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>281</v>
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -2558,7 +2474,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -2590,7 +2506,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>38</v>
@@ -2718,7 +2634,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -2750,7 +2666,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -2814,7 +2730,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -2949,7 +2865,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3269,7 +3185,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3372,7 +3288,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3785,7 +3701,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>38</v>
@@ -3817,7 +3733,7 @@
       <c r="E5" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="90" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="25" t="s">
@@ -3847,7 +3763,7 @@
       <c r="E6" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="90" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="25" t="s">
@@ -3877,7 +3793,7 @@
       <c r="E7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="90" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="25" t="s">
@@ -3905,9 +3821,9 @@
         <v>38</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="90" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="25" t="s">
@@ -3935,9 +3851,9 @@
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="F9" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="90" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="25" t="s">
@@ -3965,19 +3881,19 @@
         <v>20</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J10" s="27"/>
     </row>
@@ -4003,7 +3919,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4093,7 +4009,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="98" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -4104,7 +4020,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>38</v>
@@ -4124,7 +4040,7 @@
     </row>
     <row r="5" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B5" s="63" t="s">
         <v>67</v>
@@ -4150,7 +4066,7 @@
       <c r="I5" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="100" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4164,22 +4080,22 @@
       <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="104" t="s">
-        <v>270</v>
-      </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
+      <c r="E6" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="23" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="103" t="s">
-        <v>269</v>
+      <c r="J6" s="101" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4196,7 +4112,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>38</v>
@@ -4228,7 +4144,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>38</v>
@@ -4453,7 +4369,7 @@
         <v>171</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>55</v>
@@ -4485,7 +4401,7 @@
         <v>171</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>54</v>
@@ -4566,7 +4482,7 @@
     </row>
     <row r="19" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>16</v>
@@ -4578,7 +4494,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="88" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>38</v>
@@ -4590,8 +4506,8 @@
         <v>38</v>
       </c>
       <c r="I19" s="89"/>
-      <c r="J19" s="93" t="s">
-        <v>208</v>
+      <c r="J19" s="91" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4612,7 +4528,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>38</v>
@@ -4638,13 +4554,13 @@
         <v>38</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>38</v>
@@ -4684,7 +4600,7 @@
       <c r="I22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="94" t="s">
+      <c r="J22" s="92" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4701,14 +4617,14 @@
       <c r="D23" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="95" t="s">
-        <v>231</v>
+      <c r="E23" s="93" t="s">
+        <v>220</v>
       </c>
       <c r="F23" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" s="96" t="s">
-        <v>230</v>
+        <v>216</v>
+      </c>
+      <c r="G23" s="94" t="s">
+        <v>219</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>38</v>
@@ -4797,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5011,7 +4927,7 @@
     </row>
     <row r="8" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B8" s="63" t="s">
         <v>34</v>
@@ -5022,8 +4938,8 @@
       <c r="D8" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="112" t="s">
-        <v>283</v>
+      <c r="E8" s="104" t="s">
+        <v>271</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="59"/>
@@ -5045,7 +4961,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>38</v>
@@ -5077,7 +4993,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>38</v>
@@ -5140,8 +5056,8 @@
       <c r="D12" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="99" t="s">
-        <v>277</v>
+      <c r="E12" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="F12" s="58" t="s">
         <v>38</v>
@@ -5269,12 +5185,12 @@
         <v>20</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="49" t="s">
@@ -5333,13 +5249,13 @@
         <v>38</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" s="90" t="s">
-        <v>224</v>
+        <v>255</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>216</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>38</v>
@@ -5417,7 +5333,7 @@
     </row>
     <row r="21" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>69</v>
@@ -5432,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>113</v>
@@ -5461,13 +5377,13 @@
         <v>20</v>
       </c>
       <c r="E22" s="80" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>38</v>
@@ -5496,7 +5412,7 @@
         <v>38</v>
       </c>
       <c r="F23" s="73" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>172</v>
@@ -5534,10 +5450,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="73" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>38</v>
@@ -5566,10 +5482,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="73" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>38</v>
@@ -5613,7 +5529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>104</v>
       </c>
@@ -5627,13 +5543,13 @@
         <v>38</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" s="91" t="s">
-        <v>225</v>
+        <v>161</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>38</v>
@@ -5645,7 +5561,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>103</v>
       </c>
@@ -5659,13 +5575,13 @@
         <v>38</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F28" s="91" t="s">
-        <v>225</v>
+        <v>161</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="H28" s="49" t="s">
         <v>38</v>
@@ -5691,7 +5607,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>38</v>
@@ -5711,7 +5627,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>69</v>
@@ -5761,13 +5677,13 @@
         <v>38</v>
       </c>
       <c r="E31" s="80" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F31" s="73" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>38</v>
@@ -5895,7 +5811,7 @@
         <v>38</v>
       </c>
       <c r="E35" s="79">
-        <v>43906</v>
+        <v>44838</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>38</v>
@@ -5959,10 +5875,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="85" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C37" s="64" t="s">
         <v>18</v>
@@ -5991,35 +5907,35 @@
       <c r="O37" s="62"/>
       <c r="P37" s="62"/>
     </row>
-    <row r="38" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45" t="s">
+    <row r="38" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="106" t="s">
+      <c r="C38" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="108" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="108" t="s">
-        <v>226</v>
-      </c>
-      <c r="G38" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="H38" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="110" t="s">
+      <c r="D38" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="68" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6040,10 +5956,10 @@
         <v>38</v>
       </c>
       <c r="F39" s="73" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H39" s="49" t="s">
         <v>38</v>
@@ -6127,7 +6043,7 @@
     </row>
     <row r="42" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="62" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B42" s="63" t="s">
         <v>34</v>
@@ -6144,7 +6060,7 @@
       <c r="F42" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="97" t="s">
+      <c r="G42" s="95" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="68" t="s">
@@ -6153,8 +6069,8 @@
       <c r="I42" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J42" s="98" t="s">
-        <v>197</v>
+      <c r="J42" s="96" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -6229,7 +6145,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="62" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B45" s="63" t="s">
         <v>105</v>
@@ -6241,7 +6157,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F45" s="42" t="s">
         <v>38</v>
@@ -6311,8 +6227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A68CD9-E6C8-4C1E-8A36-F76F66BA5935}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6323,39 +6239,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>175</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>177</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>179</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>181</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6363,23 +6279,23 @@
         <v>162</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="78" t="s">
         <v>184</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>186</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6389,62 +6305,62 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
@@ -6454,45 +6370,45 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="J35" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -6502,102 +6418,102 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Utah/WaterAllocation/UT_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B8A263-EF37-4E0D-8B30-1AFF6DCB1351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686DA68F-7978-4447-B0A4-59DE89026372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="274">
   <si>
     <t>Name</t>
   </si>
@@ -823,15 +823,6 @@
   </si>
   <si>
     <t>Surface Ground</t>
-  </si>
-  <si>
-    <t>Water Rights</t>
-  </si>
-  <si>
-    <t>Water Allocation</t>
-  </si>
-  <si>
-    <t>Adjudicated</t>
   </si>
   <si>
     <t>UTwr_M1</t>
@@ -860,6 +851,18 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>The Point of Diversion feature class is a complete record of point of diversion locations taken from the Division's day to day operating database. The database is a complete record with the following exceptions:1) The Division's point of diversion referencing policy includes a provision which allows some point of diversion locations to be described more as areas (Point-to-Point Filings) than discrete points. Point to point filings are usually limited to stock watering rights. They are represented  by a discrete point which is located within the area covered by the point to point description.2) Utah State Law required applications to divert surface water to be filed with the State Engineer after 1903 and groundwater after 1935. There may be existing diversions which began prior to those dates which are not included in the Division of Water Right records. The Division becomes aware of these rights and includes these rights in it's records when the user submits a statement of water user claim either pursuant to an adjudication or to establish there is a water right under which the State Engineer is to take action.3) Data in the Division of Water Rights database was entered over an eight year period from paper files maintained by the office. Data entered in the database has been subsequently verified by staff. However, errors are occasionally detected in the database as a result of entry operations either from current staff activities or the original entry project. The Division makes an ongoing effort to maintain the database free of errors and omissions, however users of the data are responsible to verify it is suitable for their purpose. The Division appreciates and encourages users to promptly disclose any inconsistencies detected in the data to Division staff who will make every effort to correct any errors discovered.</t>
+  </si>
+  <si>
+    <t>Utah Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://waterrights.utah.gov/code_index.asp</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,6 +1089,22 @@
     <font>
       <sz val="9"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1580,7 +1599,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1623,8 +1642,9 @@
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1692,19 +1712,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1713,7 +1727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1767,9 +1781,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1833,21 +1844,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1873,7 +1872,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1887,7 +1885,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1911,15 +1909,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1929,11 +1921,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1967,6 +1962,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2295,7 +2291,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="74" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
@@ -2303,7 +2299,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="74" t="s">
         <v>190</v>
       </c>
       <c r="B1" t="s">
@@ -2311,7 +2307,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="74" t="s">
         <v>191</v>
       </c>
       <c r="B2" t="s">
@@ -2319,41 +2315,37 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="84"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="84"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="74" t="s">
         <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
@@ -2370,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2441,13 +2433,13 @@
       <c r="D3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="E3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -2464,22 +2456,22 @@
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="55" t="s">
+      <c r="C4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="52" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -2508,10 +2500,10 @@
       <c r="E5" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -2537,13 +2529,13 @@
       <c r="D6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="11" t="s">
@@ -2569,13 +2561,13 @@
       <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2601,13 +2593,13 @@
       <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="11" t="s">
@@ -2620,7 +2612,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2633,13 +2625,13 @@
       <c r="D9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="E9" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -2666,12 +2658,12 @@
         <v>38</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -2697,13 +2689,13 @@
       <c r="D11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="E11" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="11" t="s">
@@ -2729,13 +2721,13 @@
       <c r="D12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="E12" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="11" t="s">
@@ -2752,8 +2744,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{D93F6A92-EA86-44A5-A68F-CDDD40E3DF41}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2832,13 +2827,13 @@
       <c r="D3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="40" t="s">
+      <c r="E3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="19" t="s">
@@ -2855,25 +2850,25 @@
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="23" t="s">
+      <c r="C4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -2899,13 +2894,13 @@
       <c r="E5" s="21">
         <v>1</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="23" t="s">
+      <c r="F5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="8">
@@ -2931,13 +2926,13 @@
       <c r="E6" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="23" t="s">
+      <c r="F6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -2963,13 +2958,13 @@
       <c r="E7" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="23" t="s">
+      <c r="F7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -2995,13 +2990,13 @@
       <c r="E8" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="23" t="s">
+      <c r="F8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -3027,13 +3022,13 @@
       <c r="E9" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -3059,13 +3054,13 @@
       <c r="E10" s="21">
         <v>10</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="8">
@@ -3091,13 +3086,13 @@
       <c r="E11" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="23" t="s">
+      <c r="F11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -3123,13 +3118,13 @@
       <c r="E12" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="23" t="s">
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -3155,13 +3150,13 @@
       <c r="E13" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="F13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -3255,16 +3250,16 @@
       <c r="D3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="29" t="s">
+      <c r="E3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="13">
@@ -3278,25 +3273,25 @@
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="30" t="s">
+      <c r="C4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="13" t="s">
@@ -3319,16 +3314,16 @@
       <c r="D5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="30" t="s">
+      <c r="F5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="13" t="s">
@@ -3351,16 +3346,16 @@
       <c r="D6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="30" t="s">
+      <c r="F6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="13" t="s">
@@ -3383,16 +3378,16 @@
       <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="F7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="13" t="s">
@@ -3418,13 +3413,13 @@
       <c r="E8" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="13" t="s">
@@ -3447,16 +3442,16 @@
       <c r="D9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="30" t="s">
+      <c r="F9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="13" t="s">
@@ -3479,16 +3474,16 @@
       <c r="D10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="F10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="13" t="s">
@@ -3511,16 +3506,16 @@
       <c r="D11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="30" t="s">
+      <c r="F11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="13" t="s">
@@ -3546,13 +3541,13 @@
       <c r="E12" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="30" t="s">
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="13" t="s">
@@ -3670,13 +3665,13 @@
       <c r="D3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="56" t="s">
+      <c r="E3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="53" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="19" t="s">
@@ -3685,37 +3680,37 @@
       <c r="I3" s="8">
         <v>34658</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="58" t="s">
+      <c r="C4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="23" t="s">
+      <c r="F4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -3730,22 +3725,22 @@
       <c r="D5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="23"/>
+      <c r="F5" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -3760,22 +3755,22 @@
       <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="23"/>
+      <c r="F6" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -3790,22 +3785,22 @@
       <c r="D7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="23" t="s">
+      <c r="F7" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -3820,22 +3815,22 @@
       <c r="D8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="23" t="s">
+      <c r="F8" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -3850,22 +3845,22 @@
       <c r="D9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="8">
         <v>17839</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -3880,22 +3875,22 @@
       <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="11"/>
@@ -3989,19 +3984,19 @@
       <c r="D3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="E3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>38</v>
       </c>
       <c r="J3" s="21">
@@ -4009,64 +4004,64 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="26" t="s">
+      <c r="F4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="100" t="s">
+      <c r="F5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="82" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4080,21 +4075,21 @@
       <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="23" t="s">
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="101" t="s">
+      <c r="J6" s="91" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4111,19 +4106,19 @@
       <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="26" t="s">
+      <c r="F7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="21" t="s">
@@ -4143,19 +4138,19 @@
       <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="26" t="s">
+      <c r="F8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="21" t="s">
@@ -4175,22 +4170,22 @@
       <c r="D9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="26" t="s">
+      <c r="F9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4207,19 +4202,19 @@
       <c r="D10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="26" t="s">
+      <c r="F10" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -4239,19 +4234,19 @@
       <c r="D11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="26" t="s">
+      <c r="F11" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="21"/>
@@ -4269,22 +4264,22 @@
       <c r="D12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="26" t="s">
+      <c r="F12" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4301,22 +4296,22 @@
       <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="26" t="s">
+      <c r="F13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4333,22 +4328,22 @@
       <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="26" t="s">
+      <c r="F14" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4365,19 +4360,19 @@
       <c r="D15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="26" t="s">
+      <c r="H15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J15" s="21" t="s">
@@ -4397,19 +4392,19 @@
       <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="26" t="s">
+      <c r="H16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J16" s="21">
@@ -4429,22 +4424,22 @@
       <c r="D17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="26" t="s">
+      <c r="F17" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4461,26 +4456,26 @@
       <c r="D18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>199</v>
       </c>
@@ -4493,20 +4488,20 @@
       <c r="D19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="89"/>
-      <c r="J19" s="91" t="s">
+      <c r="F19" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="81"/>
+      <c r="J19" s="83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4521,19 +4516,19 @@
       <c r="D20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="32" t="s">
+      <c r="E20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="H20" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="26" t="s">
+      <c r="H20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="21" t="s">
@@ -4553,19 +4548,19 @@
       <c r="D21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="26" t="s">
+      <c r="E21" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J21" s="21">
@@ -4585,51 +4580,51 @@
       <c r="D22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="92" t="s">
+      <c r="F22" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="84" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="93" t="s">
+      <c r="E23" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="94" t="s">
+      <c r="G23" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="H23" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="26" t="s">
+      <c r="H23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J23" s="21" t="s">
@@ -4649,19 +4644,19 @@
       <c r="D24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="26" t="s">
+      <c r="F24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J24" s="21" t="s">
@@ -4681,22 +4676,22 @@
       <c r="D25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="26" t="s">
+      <c r="F25" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4713,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E47" sqref="E46:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4771,211 +4766,211 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="67">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="64">
         <v>50004</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="67">
+      <c r="E4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="64">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="69" t="s">
+      <c r="C5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="67">
+      <c r="E5" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="69" t="s">
+      <c r="C6" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="67">
+      <c r="E6" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="64">
         <v>39035</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="69" t="s">
+      <c r="C7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="67">
+      <c r="E7" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="64">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="63" t="s">
+    <row r="8" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="68"/>
-    </row>
-    <row r="9" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="C8" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="68" t="s">
+      <c r="C9" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="65" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4992,22 +4987,22 @@
       <c r="D10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="49" t="s">
+      <c r="E10" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="46" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5027,19 +5022,19 @@
       <c r="E11" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="32" t="s">
+      <c r="F11" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="46" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5047,67 +5042,67 @@
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="49" t="s">
+      <c r="C12" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="J12" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="67">
+      <c r="F13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="64">
         <v>5363</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>94</v>
       </c>
@@ -5120,16 +5115,16 @@
       <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="49" t="s">
+      <c r="F14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -5139,7 +5134,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>93</v>
       </c>
@@ -5152,16 +5147,16 @@
       <c r="D15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="49" t="s">
+      <c r="F15" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -5171,35 +5166,35 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="67" t="s">
+      <c r="F16" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="64" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5216,16 +5211,16 @@
       <c r="D17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="49" t="s">
+      <c r="F17" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -5248,16 +5243,16 @@
       <c r="D18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -5267,7 +5262,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>88</v>
       </c>
@@ -5280,22 +5275,22 @@
       <c r="D19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="49" t="s">
+      <c r="F19" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="46" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5312,16 +5307,16 @@
       <c r="D20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="49" t="s">
+      <c r="F20" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -5331,7 +5326,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>195</v>
       </c>
@@ -5344,16 +5339,16 @@
       <c r="D21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="73" t="s">
+      <c r="E21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -5376,16 +5371,16 @@
       <c r="D22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -5395,7 +5390,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>83</v>
       </c>
@@ -5408,16 +5403,16 @@
       <c r="D23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="73" t="s">
+      <c r="E23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="8" t="s">
@@ -5446,16 +5441,16 @@
       <c r="D24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="73" t="s">
+      <c r="E24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -5472,22 +5467,22 @@
       <c r="B25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="73" t="s">
+      <c r="E25" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -5510,26 +5505,26 @@
       <c r="D26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="49" t="s">
+      <c r="F26" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>104</v>
       </c>
@@ -5542,22 +5537,22 @@
       <c r="D27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="49" t="s">
+      <c r="F27" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="44">
         <v>44196</v>
       </c>
     </row>
@@ -5574,22 +5569,22 @@
       <c r="D28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F28" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="49" t="s">
+      <c r="F28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="44">
         <v>43831</v>
       </c>
     </row>
@@ -5606,16 +5601,16 @@
       <c r="D29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="49" t="s">
+      <c r="F29" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="8" t="s">
@@ -5638,16 +5633,16 @@
       <c r="D30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="49" t="s">
+      <c r="F30" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I30" s="8" t="s">
@@ -5656,12 +5651,12 @@
       <c r="J30" s="13">
         <v>0</v>
       </c>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -5670,28 +5665,28 @@
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="80" t="s">
+      <c r="E31" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="F31" s="73" t="s">
+      <c r="F31" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="49" t="s">
+      <c r="H31" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="46" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5708,16 +5703,16 @@
       <c r="D32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="49" t="s">
+      <c r="F32" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I32" s="8" t="s">
@@ -5740,16 +5735,16 @@
       <c r="D33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F33" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="49" t="s">
+      <c r="F33" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="8" t="s">
@@ -5759,7 +5754,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>100</v>
       </c>
@@ -5772,16 +5767,16 @@
       <c r="D34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="49" t="s">
+      <c r="F34" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="8" t="s">
@@ -5798,44 +5793,44 @@
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="79">
+      <c r="C35" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="72">
         <v>44838</v>
       </c>
-      <c r="F35" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="72">
+      <c r="F35" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="67">
         <v>43874</v>
       </c>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-    </row>
-    <row r="36" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+    </row>
+    <row r="36" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>82</v>
       </c>
@@ -5848,22 +5843,22 @@
       <c r="D36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="47">
+      <c r="F36" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="45">
         <v>33187</v>
       </c>
       <c r="K36" s="7"/>
@@ -5874,68 +5869,68 @@
       <c r="P36" s="7"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="42">
+      <c r="D37" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="40">
         <v>0</v>
       </c>
-      <c r="F37" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="86"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-    </row>
-    <row r="38" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="62" t="s">
+      <c r="F37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="78"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+    </row>
+    <row r="38" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="42" t="s">
+      <c r="D38" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="68" t="s">
+      <c r="F38" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="65" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5952,22 +5947,22 @@
       <c r="D39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="73" t="s">
+      <c r="E39" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="H39" s="49" t="s">
+      <c r="H39" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="49" t="s">
+      <c r="J39" s="46" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5984,16 +5979,16 @@
       <c r="D40" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F40" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="49" t="s">
+      <c r="F40" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I40" s="8" t="s">
@@ -6003,7 +5998,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>96</v>
       </c>
@@ -6016,22 +6011,22 @@
       <c r="D41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="49" t="s">
+      <c r="F41" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="49" t="s">
+      <c r="J41" s="46" t="s">
         <v>38</v>
       </c>
       <c r="K41" s="7"/>
@@ -6041,35 +6036,35 @@
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+    <row r="42" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="65" t="s">
+      <c r="D42" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="96" t="s">
+      <c r="F42" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="88" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6086,26 +6081,26 @@
       <c r="D43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F43" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="49" t="s">
+      <c r="F43" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>102</v>
       </c>
@@ -6118,16 +6113,16 @@
       <c r="D44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="49" t="s">
+      <c r="F44" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I44" s="8" t="s">
@@ -6144,42 +6139,42 @@
       <c r="P44" s="7"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" s="63" t="s">
+      <c r="A45" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="F45" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="67" t="s">
+      <c r="F45" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
@@ -6194,16 +6189,16 @@
       <c r="D46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="49" t="s">
+      <c r="F46" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="8" t="s">
@@ -6243,58 +6238,58 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="71" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="71" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="71" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="71" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="71" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="71" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="71" t="s">
         <v>186</v>
       </c>
     </row>
